--- a/Application Number.xlsx
+++ b/Application Number.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\MaxBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{208E71D0-9557-40A8-A3A8-7AB1FCF102B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD1EB5-7FB9-48FC-952F-5CAF2C4E3C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34905" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32295" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ANU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,15 +80,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Password JRV0F7NR </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> student Number: 1663763</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NetID: jiajunhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password JRV0F7NR (changed)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manchester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 10836879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: s2148644</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,16 +452,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -496,10 +511,26 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Application Number.xlsx
+++ b/Application Number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\MaxBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD1EB5-7FB9-48FC-952F-5CAF2C4E3C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC618E6-02F4-4FCD-86E2-0C7F2D13628C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32295" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Uni Melb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: 1243687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Password ytgEtiyK </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student Number: 5441226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: JHu121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> student Number: 1663763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetID: jiajunhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password JRV0F7NR (changed)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manchester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 10836879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: s2148644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>Transaction ID:</t>
     </r>
@@ -50,61 +106,6 @@
       </rPr>
       <t> UMGRAD_82413393_20201013091441</t>
     </r>
-  </si>
-  <si>
-    <t>Uni Melb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Username: 1243687</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Password ytgEtiyK </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Student Number: 5441226</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Username: JHu121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> student Number: 1663763</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetID: jiajunhu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password JRV0F7NR (changed)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manchester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 10836879</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edinburgh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Username: s2148644</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +456,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -478,59 +479,59 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Application Number.xlsx
+++ b/Application Number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\MaxBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC618E6-02F4-4FCD-86E2-0C7F2D13628C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D6C79-F146-487A-BDEC-183A9601B45B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
